--- a/datasalon-master/02_개정판/5_Jeju_Hotplace/practice/3_3_location_counts.xlsx
+++ b/datasalon-master/02_개정판/5_Jeju_Hotplace/practice/3_3_location_counts.xlsx
@@ -19,12 +19,12 @@
     <t>place</t>
   </si>
   <si>
+    <t>제주도 Jeju Island</t>
+  </si>
+  <si>
     <t>환상의 섬 Jeju Island</t>
   </si>
   <si>
-    <t>제주도 Jeju Island</t>
-  </si>
-  <si>
     <t>고래배꼽</t>
   </si>
   <si>
@@ -40,490 +40,490 @@
     <t>제주 사계해변</t>
   </si>
   <si>
+    <t>Seogwipo, Jeju Island, South Korea</t>
+  </si>
+  <si>
+    <t>신창풍차해안도로</t>
+  </si>
+  <si>
+    <t>스누피가든</t>
+  </si>
+  <si>
     <t>Seogwipo</t>
   </si>
   <si>
-    <t>스누피가든</t>
-  </si>
-  <si>
-    <t>신창풍차해안도로</t>
-  </si>
-  <si>
     <t>디앤디파트먼트 제주</t>
   </si>
   <si>
-    <t>Seogwipo, Jeju Island, South Korea</t>
-  </si>
-  <si>
     <t>제주도 서귀포시 중문단지</t>
   </si>
   <si>
+    <t>아녜스의앞치마</t>
+  </si>
+  <si>
+    <t>제주도 애월읍</t>
+  </si>
+  <si>
+    <t>그레이그로브</t>
+  </si>
+  <si>
+    <t>제주도 곽지해수욕장</t>
+  </si>
+  <si>
+    <t>우도 牛岛 Udo Island, South Korea</t>
+  </si>
+  <si>
+    <t>곰막 횟집</t>
+  </si>
+  <si>
+    <t>월정리해변</t>
+  </si>
+  <si>
+    <t>부영 CC</t>
+  </si>
+  <si>
+    <t>노라바</t>
+  </si>
+  <si>
+    <t>협재</t>
+  </si>
+  <si>
+    <t>송훈파크</t>
+  </si>
+  <si>
+    <t>해더</t>
+  </si>
+  <si>
     <t>제주 남원리</t>
   </si>
   <si>
-    <t>제주도 애월읍</t>
-  </si>
-  <si>
-    <t>그레이그로브</t>
-  </si>
-  <si>
-    <t>제주도 곽지해수욕장</t>
-  </si>
-  <si>
-    <t>곰막 횟집</t>
+    <t>법환동</t>
+  </si>
+  <si>
+    <t>the cliff jeju - 더클리프 제주</t>
+  </si>
+  <si>
+    <t>제주시차</t>
   </si>
   <si>
     <t>그때그집</t>
   </si>
   <si>
-    <t>해더</t>
-  </si>
-  <si>
-    <t>노라바</t>
-  </si>
-  <si>
-    <t>the cliff jeju - 더클리프 제주</t>
-  </si>
-  <si>
-    <t>월정리해변</t>
-  </si>
-  <si>
     <t>인스밀</t>
   </si>
   <si>
-    <t>송훈파크</t>
-  </si>
-  <si>
-    <t>제주시차</t>
-  </si>
-  <si>
-    <t>협재</t>
-  </si>
-  <si>
-    <t>법환동</t>
-  </si>
-  <si>
-    <t>우도 牛岛 Udo Island, South Korea</t>
-  </si>
-  <si>
-    <t>아녜스의앞치마</t>
-  </si>
-  <si>
-    <t>부영 CC</t>
+    <t>더스테어</t>
+  </si>
+  <si>
+    <t>미스제주가든</t>
+  </si>
+  <si>
+    <t>털보네장어랜드</t>
+  </si>
+  <si>
+    <t>제주 해비치호텔</t>
+  </si>
+  <si>
+    <t>고서방짬뽕</t>
+  </si>
+  <si>
+    <t>제주도 삼대국수</t>
+  </si>
+  <si>
+    <t>제주 협재 해수욕장</t>
+  </si>
+  <si>
+    <t>에곤카페</t>
+  </si>
+  <si>
+    <t>랍스터빈_jeju</t>
+  </si>
+  <si>
+    <t>보롬왓</t>
+  </si>
+  <si>
+    <t>착한튀김</t>
+  </si>
+  <si>
+    <t>편안식당</t>
+  </si>
+  <si>
+    <t>느루,온穩</t>
+  </si>
+  <si>
+    <t>오지하우스:호주식당</t>
+  </si>
+  <si>
+    <t>The Shilla Jeju</t>
+  </si>
+  <si>
+    <t>하도해변</t>
+  </si>
+  <si>
+    <t>밀면촌</t>
+  </si>
+  <si>
+    <t>공항칼국수</t>
+  </si>
+  <si>
+    <t>라이터스블럭/ writer's block</t>
+  </si>
+  <si>
+    <t>Holiday Diving Korea</t>
+  </si>
+  <si>
+    <t>드렌도트</t>
+  </si>
+  <si>
+    <t>까사디노아제주</t>
+  </si>
+  <si>
+    <t>제주 구좌읍 세화리</t>
+  </si>
+  <si>
+    <t>제주 김만복김밥 애월</t>
+  </si>
+  <si>
+    <t>오후새우시</t>
+  </si>
+  <si>
+    <t>정민막창</t>
+  </si>
+  <si>
+    <t>용머리해안</t>
+  </si>
+  <si>
+    <t>제주 구좌 행원</t>
+  </si>
+  <si>
+    <t>온더스톤 카페앤펍</t>
+  </si>
+  <si>
+    <t>외돌개</t>
+  </si>
+  <si>
+    <t>하도어촌계</t>
+  </si>
+  <si>
+    <t>화산2020</t>
+  </si>
+  <si>
+    <t>모아나디쉬</t>
+  </si>
+  <si>
+    <t>전설의짬뽕</t>
+  </si>
+  <si>
+    <t>Saturday Island</t>
+  </si>
+  <si>
+    <t>복자씨연탄구이</t>
+  </si>
+  <si>
+    <t>Cafe_the_light_jeju</t>
+  </si>
+  <si>
+    <t>볕이드는곳벧디</t>
+  </si>
+  <si>
+    <t>모록도야지</t>
+  </si>
+  <si>
+    <t>Seoul, Korea</t>
+  </si>
+  <si>
+    <t>잇칸시타</t>
+  </si>
+  <si>
+    <t>카페 사분의일</t>
+  </si>
+  <si>
+    <t>벵디</t>
+  </si>
+  <si>
+    <t>범일분식</t>
+  </si>
+  <si>
+    <t>구엄해녀수산</t>
+  </si>
+  <si>
+    <t>잔물결</t>
+  </si>
+  <si>
+    <t>도두반점</t>
   </si>
   <si>
     <t>와인공화국</t>
   </si>
   <si>
-    <t>화산2020</t>
+    <t>제주도제주시 삼화지구</t>
+  </si>
+  <si>
+    <t>Hibi &amp; Kohaku</t>
+  </si>
+  <si>
+    <t>토끼트멍</t>
+  </si>
+  <si>
+    <t>화북공업단지</t>
+  </si>
+  <si>
+    <t>문쏘</t>
+  </si>
+  <si>
+    <t>마시오름</t>
+  </si>
+  <si>
+    <t>그랜드조선 제주</t>
+  </si>
+  <si>
+    <t>논짓물식당</t>
+  </si>
+  <si>
+    <t>자매국수</t>
+  </si>
+  <si>
+    <t>바람이풀에그림그린날</t>
+  </si>
+  <si>
+    <t>바다위에코끼리</t>
+  </si>
+  <si>
+    <t>금능해수욕장</t>
+  </si>
+  <si>
+    <t>도치돌목장</t>
+  </si>
+  <si>
+    <t>우미노식탁</t>
+  </si>
+  <si>
+    <t>비밀의숲</t>
+  </si>
+  <si>
+    <t>낭쿰낭쿰</t>
+  </si>
+  <si>
+    <t>천호역</t>
+  </si>
+  <si>
+    <t>중문관광단지 (Jungmun Tourism Complex)</t>
+  </si>
+  <si>
+    <t>바당고지</t>
+  </si>
+  <si>
+    <t>구좌지앵</t>
+  </si>
+  <si>
+    <t>노모어블루스</t>
+  </si>
+  <si>
+    <t>신화역사공원</t>
+  </si>
+  <si>
+    <t>소문난 할머니집(784-5650)</t>
+  </si>
+  <si>
+    <t>취향의섬</t>
+  </si>
+  <si>
+    <t>오른orrrn</t>
+  </si>
+  <si>
+    <t>제주 함덕 서우봉 해변</t>
+  </si>
+  <si>
+    <t>론푸드차이나</t>
+  </si>
+  <si>
+    <t>포리식당</t>
+  </si>
+  <si>
+    <t>시골길</t>
+  </si>
+  <si>
+    <t>Umu Pudding , 우무</t>
+  </si>
+  <si>
+    <t>동명동</t>
+  </si>
+  <si>
+    <t>블루보틀 제주</t>
+  </si>
+  <si>
+    <t>제주도 하도리</t>
+  </si>
+  <si>
+    <t>Camphortree Hotel</t>
+  </si>
+  <si>
+    <t>별방진</t>
+  </si>
+  <si>
+    <t>물영아리 오름습지</t>
+  </si>
+  <si>
+    <t>청초밭영농조합법인</t>
+  </si>
+  <si>
+    <t>Busan, South Korea</t>
+  </si>
+  <si>
+    <t>백기해녀의집</t>
+  </si>
+  <si>
+    <t>용담해안도로</t>
+  </si>
+  <si>
+    <t>성산일출봉</t>
+  </si>
+  <si>
+    <t>Kunaeats, 쿠나이츠</t>
+  </si>
+  <si>
+    <t>흑사돈</t>
+  </si>
+  <si>
+    <t>황우지해안</t>
+  </si>
+  <si>
+    <t>Grand Hyatt Jeju</t>
+  </si>
+  <si>
+    <t>숙성도 중문점</t>
+  </si>
+  <si>
+    <t>Road129</t>
+  </si>
+  <si>
+    <t>한촌설렁탕</t>
+  </si>
+  <si>
+    <t>카페 아오오</t>
+  </si>
+  <si>
+    <t>해월정</t>
+  </si>
+  <si>
+    <t>제주김녕해수욕장</t>
+  </si>
+  <si>
+    <t>카페갤럭시아 제주</t>
+  </si>
+  <si>
+    <t>애월찜</t>
+  </si>
+  <si>
+    <t>옹포별장가든</t>
+  </si>
+  <si>
+    <t>가람돌솥밥</t>
+  </si>
+  <si>
+    <t>포도호텔</t>
+  </si>
+  <si>
+    <t>Cheonan, Korea</t>
   </si>
   <si>
     <t>그랜드하얏트 제주</t>
   </si>
   <si>
-    <t>토끼트멍</t>
-  </si>
-  <si>
-    <t>도두반점</t>
-  </si>
-  <si>
-    <t>오지하우스:호주식당</t>
-  </si>
-  <si>
-    <t>털보네장어랜드</t>
-  </si>
-  <si>
-    <t>제주도 삼대국수</t>
+    <t>마담나탈리소셜클럽</t>
+  </si>
+  <si>
+    <t>수목원길 야시장</t>
+  </si>
+  <si>
+    <t>제주 금오름</t>
+  </si>
+  <si>
+    <t>브라보비치</t>
+  </si>
+  <si>
+    <t>서촌제</t>
+  </si>
+  <si>
+    <t>새물국수</t>
+  </si>
+  <si>
+    <t>월정리갈비밥</t>
+  </si>
+  <si>
+    <t>Hidden Cliff / 히든 클리프</t>
+  </si>
+  <si>
+    <t>팟타이만</t>
+  </si>
+  <si>
+    <t>소금바치 순이네</t>
+  </si>
+  <si>
+    <t>뽈살집서귀포점</t>
+  </si>
+  <si>
+    <t>굄 GOEM</t>
+  </si>
+  <si>
+    <t>숙성도</t>
+  </si>
+  <si>
+    <t>도두동 무지개 해안도로</t>
+  </si>
+  <si>
+    <t>짱숯뿔갈비</t>
+  </si>
+  <si>
+    <t>스타벅스 제주중문점</t>
+  </si>
+  <si>
+    <t>바굼지오름 - 단산</t>
+  </si>
+  <si>
+    <t>난산리사무소</t>
   </si>
   <si>
     <t>CAFE COLA Coffee&amp;coke</t>
   </si>
   <si>
-    <t>카페갤럭시아 제주</t>
-  </si>
-  <si>
-    <t>보롬왓</t>
-  </si>
-  <si>
-    <t>랍스터빈_jeju</t>
-  </si>
-  <si>
-    <t>도치돌목장</t>
-  </si>
-  <si>
-    <t>노모어블루스</t>
-  </si>
-  <si>
-    <t>공항칼국수</t>
-  </si>
-  <si>
-    <t>천호역</t>
-  </si>
-  <si>
-    <t>제주도 하도리</t>
-  </si>
-  <si>
-    <t>라이터스블럭/ writer's block</t>
-  </si>
-  <si>
-    <t>바다위에코끼리</t>
-  </si>
-  <si>
-    <t>문쏘</t>
-  </si>
-  <si>
-    <t>성산일출봉</t>
-  </si>
-  <si>
-    <t>오후새우시</t>
-  </si>
-  <si>
-    <t>제주 구좌 행원</t>
-  </si>
-  <si>
-    <t>취향의섬</t>
-  </si>
-  <si>
-    <t>한촌설렁탕</t>
-  </si>
-  <si>
-    <t>하도어촌계</t>
-  </si>
-  <si>
-    <t>신화역사공원</t>
-  </si>
-  <si>
-    <t>Holiday Diving Korea</t>
-  </si>
-  <si>
-    <t>바람이풀에그림그린날</t>
-  </si>
-  <si>
-    <t>숙성도</t>
-  </si>
-  <si>
-    <t>물영아리 오름습지</t>
-  </si>
-  <si>
-    <t>잇칸시타</t>
-  </si>
-  <si>
-    <t>론푸드차이나</t>
-  </si>
-  <si>
-    <t>제주 해비치호텔</t>
-  </si>
-  <si>
-    <t>범일분식</t>
-  </si>
-  <si>
-    <t>미스제주가든</t>
-  </si>
-  <si>
-    <t>Saturday Island</t>
-  </si>
-  <si>
-    <t>마담나탈리소셜클럽</t>
-  </si>
-  <si>
-    <t>Kunaeats, 쿠나이츠</t>
-  </si>
-  <si>
-    <t>구엄해녀수산</t>
-  </si>
-  <si>
-    <t>제주김녕해수욕장</t>
-  </si>
-  <si>
-    <t>Hidden Cliff / 히든 클리프</t>
-  </si>
-  <si>
-    <t>볕이드는곳벧디</t>
+    <t>우진해장국</t>
+  </si>
+  <si>
+    <t>휴애리 자연생활공원</t>
+  </si>
+  <si>
+    <t>카페동백</t>
+  </si>
+  <si>
+    <t>서귀포 쌍둥이 횟집</t>
+  </si>
+  <si>
+    <t>목화휴게소</t>
+  </si>
+  <si>
+    <t>제주도</t>
+  </si>
+  <si>
+    <t>JIVAL</t>
+  </si>
+  <si>
+    <t>다오라minpho</t>
+  </si>
+  <si>
+    <t>Melbourne32</t>
   </si>
   <si>
     <t>서광마을국수</t>
   </si>
   <si>
-    <t>Cafe_the_light_jeju</t>
-  </si>
-  <si>
-    <t>정민막창</t>
-  </si>
-  <si>
-    <t>Grand Hyatt Jeju</t>
-  </si>
-  <si>
-    <t>새물국수</t>
-  </si>
-  <si>
-    <t>옹포별장가든</t>
-  </si>
-  <si>
-    <t>에곤카페</t>
-  </si>
-  <si>
-    <t>Melbourne32</t>
-  </si>
-  <si>
-    <t>오른orrrn</t>
-  </si>
-  <si>
-    <t>별방진</t>
-  </si>
-  <si>
-    <t>숙성도 중문점</t>
-  </si>
-  <si>
-    <t>굄 GOEM</t>
-  </si>
-  <si>
-    <t>휴애리 자연생활공원</t>
-  </si>
-  <si>
-    <t>수목원길 야시장</t>
-  </si>
-  <si>
-    <t>전설의짬뽕</t>
-  </si>
-  <si>
-    <t>스타벅스 제주중문점</t>
-  </si>
-  <si>
-    <t>모록도야지</t>
-  </si>
-  <si>
-    <t>도두동 무지개 해안도로</t>
-  </si>
-  <si>
-    <t>황우지해안</t>
-  </si>
-  <si>
-    <t>바당고지</t>
-  </si>
-  <si>
-    <t>용머리해안</t>
-  </si>
-  <si>
-    <t>드렌도트</t>
-  </si>
-  <si>
-    <t>제주도</t>
-  </si>
-  <si>
-    <t>편안식당</t>
-  </si>
-  <si>
-    <t>제주 구좌읍 세화리</t>
-  </si>
-  <si>
-    <t>카페 사분의일</t>
-  </si>
-  <si>
-    <t>우미노식탁</t>
-  </si>
-  <si>
-    <t>포리식당</t>
+    <t>라인업서프 하도</t>
+  </si>
+  <si>
+    <t>제주갈매기</t>
   </si>
   <si>
     <t>카페 루시아</t>
-  </si>
-  <si>
-    <t>뽈살집서귀포점</t>
-  </si>
-  <si>
-    <t>The Shilla Jeju</t>
-  </si>
-  <si>
-    <t>벵디</t>
-  </si>
-  <si>
-    <t>제주 김만복김밥 애월</t>
-  </si>
-  <si>
-    <t>고서방짬뽕</t>
-  </si>
-  <si>
-    <t>자매국수</t>
-  </si>
-  <si>
-    <t>느루,온穩</t>
-  </si>
-  <si>
-    <t>카페 아오오</t>
-  </si>
-  <si>
-    <t>난산리사무소</t>
-  </si>
-  <si>
-    <t>외돌개</t>
-  </si>
-  <si>
-    <t>더스테어</t>
-  </si>
-  <si>
-    <t>밀면촌</t>
-  </si>
-  <si>
-    <t>팟타이만</t>
-  </si>
-  <si>
-    <t>착한튀김</t>
-  </si>
-  <si>
-    <t>제주 함덕 서우봉 해변</t>
-  </si>
-  <si>
-    <t>시골길</t>
-  </si>
-  <si>
-    <t>짱숯뿔갈비</t>
-  </si>
-  <si>
-    <t>제주갈매기</t>
-  </si>
-  <si>
-    <t>라인업서프 하도</t>
-  </si>
-  <si>
-    <t>제주도제주시 삼화지구</t>
-  </si>
-  <si>
-    <t>서촌제</t>
-  </si>
-  <si>
-    <t>카페동백</t>
-  </si>
-  <si>
-    <t>소문난 할머니집(784-5650)</t>
-  </si>
-  <si>
-    <t>Road129</t>
-  </si>
-  <si>
-    <t>잔물결</t>
-  </si>
-  <si>
-    <t>마시오름</t>
-  </si>
-  <si>
-    <t>Hibi &amp; Kohaku</t>
-  </si>
-  <si>
-    <t>용담해안도로</t>
-  </si>
-  <si>
-    <t>Umu Pudding , 우무</t>
-  </si>
-  <si>
-    <t>Seoul, Korea</t>
-  </si>
-  <si>
-    <t>브라보비치</t>
-  </si>
-  <si>
-    <t>청초밭영농조합법인</t>
-  </si>
-  <si>
-    <t>애월찜</t>
-  </si>
-  <si>
-    <t>낭쿰낭쿰</t>
-  </si>
-  <si>
-    <t>소금바치 순이네</t>
-  </si>
-  <si>
-    <t>모아나디쉬</t>
-  </si>
-  <si>
-    <t>서귀포 쌍둥이 횟집</t>
-  </si>
-  <si>
-    <t>화북공업단지</t>
-  </si>
-  <si>
-    <t>복자씨연탄구이</t>
-  </si>
-  <si>
-    <t>해월정</t>
-  </si>
-  <si>
-    <t>바굼지오름 - 단산</t>
-  </si>
-  <si>
-    <t>금능해수욕장</t>
-  </si>
-  <si>
-    <t>월정리갈비밥</t>
-  </si>
-  <si>
-    <t>Cheonan, Korea</t>
-  </si>
-  <si>
-    <t>Camphortree Hotel</t>
-  </si>
-  <si>
-    <t>JIVAL</t>
-  </si>
-  <si>
-    <t>Busan, South Korea</t>
-  </si>
-  <si>
-    <t>중문관광단지 (Jungmun Tourism Complex)</t>
-  </si>
-  <si>
-    <t>다오라minpho</t>
-  </si>
-  <si>
-    <t>까사디노아제주</t>
-  </si>
-  <si>
-    <t>제주 협재 해수욕장</t>
-  </si>
-  <si>
-    <t>비밀의숲</t>
-  </si>
-  <si>
-    <t>가람돌솥밥</t>
-  </si>
-  <si>
-    <t>백기해녀의집</t>
-  </si>
-  <si>
-    <t>포도호텔</t>
-  </si>
-  <si>
-    <t>흑사돈</t>
-  </si>
-  <si>
-    <t>그랜드조선 제주</t>
-  </si>
-  <si>
-    <t>제주 금오름</t>
-  </si>
-  <si>
-    <t>우진해장국</t>
-  </si>
-  <si>
-    <t>블루보틀 제주</t>
-  </si>
-  <si>
-    <t>온더스톤 카페앤펍</t>
-  </si>
-  <si>
-    <t>하도해변</t>
-  </si>
-  <si>
-    <t>목화휴게소</t>
-  </si>
-  <si>
-    <t>논짓물식당</t>
-  </si>
-  <si>
-    <t>동명동</t>
-  </si>
-  <si>
-    <t>구좌지앵</t>
   </si>
 </sst>
 </file>
